--- a/defaults/annotator.xlsx
+++ b/defaults/annotator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SeamusLankford_1/OneDrive - Munster Technological University/oneDriveMTU/CIT/PhD/autoNMTv2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A62267-AE26-6B49-973C-4494850E9E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F195DAA3-24B1-644F-9DEE-2CA504E96C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8880" yWindow="-21100" windowWidth="43040" windowHeight="20080" xr2:uid="{3EEFA7C9-38CD-3F40-8F66-655709C7C99B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="35840" windowHeight="20080" xr2:uid="{3EEFA7C9-38CD-3F40-8F66-655709C7C99B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -399,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -454,37 +476,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -801,11 +820,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD06845-45D3-2D44-945E-5131222B5E93}">
-  <dimension ref="A1:AG4"/>
+  <dimension ref="A1:AG3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="166" zoomScaleNormal="159" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="159" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -833,18 +852,18 @@
     <col min="23" max="23" width="6.1640625" style="14" customWidth="1"/>
     <col min="24" max="24" width="7.33203125" style="14" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="5.83203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.1640625" style="14" bestFit="1" customWidth="1"/>
     <col min="27" max="16384" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="27" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="30" t="s">
@@ -863,34 +882,34 @@
         <v>5</v>
       </c>
       <c r="K1" s="30"/>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31" t="s">
+      <c r="M1" s="29"/>
+      <c r="N1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31" t="s">
+      <c r="O1" s="29"/>
+      <c r="P1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31" t="s">
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31" t="s">
+      <c r="S1" s="29"/>
+      <c r="T1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31" t="s">
+      <c r="U1" s="29"/>
+      <c r="V1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="W1" s="31"/>
-      <c r="AB1" s="32" t="s">
+      <c r="W1" s="29"/>
+      <c r="AB1" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" s="32"/>
+      <c r="AC1" s="28"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A2" s="11"/>
@@ -990,7 +1009,7 @@
       </c>
     </row>
     <row r="3" spans="1:33" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A3" s="26">
+      <c r="A3" s="24">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
@@ -1061,30 +1080,30 @@
         <v>0</v>
       </c>
       <c r="X3" s="17">
-        <v>5</v>
-      </c>
-      <c r="Y3" s="17">
-        <f>(D3*$AE$3)+(E3*$AF$3)+(F3*$AE$3)+(G3*$AF$3)+(H3*$AE$3)+(I3*$AF$3)+(J3*$AE$3)+(K3*$AF$3)+(L3*$AE$3)+(M3*$AF$3)+(N3*$AE$3)+(O3*$AF$3)+(P3*$AE$3)+(Q3*$AF$3)+(R3*$AE$3)+(S3*$AF$3)+(T3*$AE$3)+(U3*$AF$3)+(V3*$AE$3)+(W3*$AF$3)</f>
-        <v>0</v>
-      </c>
-      <c r="Z3" s="23">
-        <f t="shared" ref="Z3" si="0">1-(Y3/X3)</f>
         <v>1</v>
       </c>
-      <c r="AA3" s="20">
-        <f t="shared" ref="AA3" si="1">Z3*100</f>
+      <c r="Y3" s="17" cm="1">
+        <f t="array" aca="1" ref="Y3" ca="1">(INDIRECT("D"&amp;ROW())*$AE$3)+(INDIRECT("E"&amp;ROW())*$AF$3)+(INDIRECT("F"&amp;ROW())*$AE$3)+(INDIRECT("G"&amp;ROW())*$AF$3)+(INDIRECT("H"&amp;ROW())*$AE$3)+(INDIRECT("I"&amp;ROW())*$AF$3)+(INDIRECT("J"&amp;ROW())*$AE$3)+(INDIRECT("K"&amp;ROW())*$AF$3)+(INDIRECT("L"&amp;ROW())*$AE$3)+(INDIRECT("M"&amp;ROW())*$AF$3)+(INDIRECT("N"&amp;ROW())*$AE$3)+(INDIRECT("O"&amp;ROW())*$AF$3)+(INDIRECT("P"&amp;ROW())*$AE$3)+(INDIRECT("Q"&amp;ROW())*$AF$3)+(INDIRECT("R"&amp;ROW())*$AE$3)+(INDIRECT("S"&amp;ROW())*$AF$3)+(INDIRECT("T"&amp;ROW())*$AE$3)+(INDIRECT("U"&amp;ROW())*$AF$3)+(INDIRECT("V"&amp;ROW())*$AE$3)+(INDIRECT("W"&amp;ROW())*$AF$3)</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="22" cm="1">
+        <f t="array" aca="1" ref="Z3" ca="1">1-(INDIRECT("Y"&amp;ROW())/INDIRECT("X"&amp;ROW()))</f>
+        <v>1</v>
+      </c>
+      <c r="AA3" s="20" cm="1">
+        <f t="array" aca="1" ref="AA3" ca="1">INDIRECT("Z"&amp;ROW())*100</f>
         <v>100</v>
       </c>
-      <c r="AB3" s="25">
-        <f ca="1">SUM(D3:INDIRECT("K"&amp;AG3))</f>
-        <v>0</v>
-      </c>
-      <c r="AC3" s="22">
-        <f ca="1">SUM(L3:INDIRECT("W"&amp;AG3))</f>
-        <v>0</v>
-      </c>
-      <c r="AD3" s="17">
-        <f>SUM(B3:B3)/AG3</f>
+      <c r="AB3" s="23">
+        <f ca="1">SUM(INDIRECT("D"&amp;ROW()):INDIRECT("K"&amp;ROW()))</f>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="23">
+        <f ca="1">SUM(INDIRECT("L"&amp;ROW()):INDIRECT("W"&amp;ROW()))</f>
+        <v>0</v>
+      </c>
+      <c r="AD3" s="20" cm="1">
+        <f t="array" aca="1" ref="AD3" ca="1">SUM(B3:INDIRECT("B"&amp;AG3+2)/$AG$3)</f>
         <v>0</v>
       </c>
       <c r="AE3" s="19">
@@ -1096,9 +1115,6 @@
       <c r="AG3" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z4" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1307,14 +1323,14 @@
       <c r="B27" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="G27" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24" t="s">
+      <c r="H27" s="31"/>
+      <c r="I27" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="J27" s="24"/>
+      <c r="J27" s="31"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B28" s="5" t="s">
@@ -1375,14 +1391,14 @@
       <c r="E35" s="7"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="G36" s="24" t="s">
+      <c r="G36" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24" t="s">
+      <c r="H36" s="31"/>
+      <c r="I36" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="J36" s="24"/>
+      <c r="J36" s="31"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.15">
       <c r="E37" s="7"/>
